--- a/wildlife/reports/United-Kingdom/richness/2021/richness.xlsx
+++ b/wildlife/reports/United-Kingdom/richness/2021/richness.xlsx
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51.6708</v>
+        <v>51.67167</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.288</v>
+        <v>-1.27833</v>
       </c>
       <c r="E2" t="n">
         <v>77</v>
